--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lta-Tnfrsf14.xlsx
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Tnfrsf14</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Tnfrsf14</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H2">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I2">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J2">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N2">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O2">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P2">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q2">
-        <v>0.5672278262466666</v>
+        <v>0.2661051428344445</v>
       </c>
       <c r="R2">
-        <v>5.105050436219999</v>
+        <v>2.39494628551</v>
       </c>
       <c r="S2">
-        <v>0.02465374272998368</v>
+        <v>0.007818480482419121</v>
       </c>
       <c r="T2">
-        <v>0.0259818327415869</v>
+        <v>0.007850999060807551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H3">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I3">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J3">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.995387</v>
       </c>
       <c r="O3">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P3">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q3">
-        <v>0.6551987005062222</v>
+        <v>0.2822088058451112</v>
       </c>
       <c r="R3">
-        <v>5.896788304555999</v>
+        <v>2.539879252606</v>
       </c>
       <c r="S3">
-        <v>0.0284772704226884</v>
+        <v>0.008291624945555949</v>
       </c>
       <c r="T3">
-        <v>0.03001133276852846</v>
+        <v>0.008326111423633861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H4">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I4">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J4">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N4">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O4">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P4">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q4">
-        <v>3.56356854982711</v>
+        <v>2.216717753178445</v>
       </c>
       <c r="R4">
-        <v>32.07211694844399</v>
+        <v>19.950459778606</v>
       </c>
       <c r="S4">
-        <v>0.1548853884856727</v>
+        <v>0.06512976150573771</v>
       </c>
       <c r="T4">
-        <v>0.1632290196999683</v>
+        <v>0.06540064882965013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H5">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I5">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J5">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N5">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O5">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P5">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q5">
-        <v>0.4476654315133333</v>
+        <v>0.05420418691700001</v>
       </c>
       <c r="R5">
-        <v>2.68599258908</v>
+        <v>0.325225121502</v>
       </c>
       <c r="S5">
-        <v>0.01945713497637442</v>
+        <v>0.001592582439263954</v>
       </c>
       <c r="T5">
-        <v>0.01367019015120482</v>
+        <v>0.00106613753256662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1638626666666666</v>
+        <v>0.07057933333333334</v>
       </c>
       <c r="H6">
-        <v>0.4915879999999999</v>
+        <v>0.211738</v>
       </c>
       <c r="I6">
-        <v>0.3725965100437144</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="J6">
-        <v>0.3858330815206087</v>
+        <v>0.1281663575568867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N6">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O6">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P6">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q6">
-        <v>3.33895707674711</v>
+        <v>1.542957885442</v>
       </c>
       <c r="R6">
-        <v>30.05061369072399</v>
+        <v>13.886620968978</v>
       </c>
       <c r="S6">
-        <v>0.1451229734289951</v>
+        <v>0.04533390818390998</v>
       </c>
       <c r="T6">
-        <v>0.1529407061593202</v>
+        <v>0.04552246071022854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.0837</v>
       </c>
       <c r="I7">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J7">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N7">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O7">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P7">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q7">
-        <v>0.09657877949999999</v>
+        <v>0.1051913235</v>
       </c>
       <c r="R7">
-        <v>0.8692090155</v>
+        <v>0.9467219115</v>
       </c>
       <c r="S7">
-        <v>0.004197657930013823</v>
+        <v>0.003090644175247146</v>
       </c>
       <c r="T7">
-        <v>0.004423784552248679</v>
+        <v>0.003103498764461702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.0837</v>
       </c>
       <c r="I8">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J8">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.995387</v>
       </c>
       <c r="O8">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P8">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q8">
         <v>0.1115570991</v>
@@ -948,10 +948,10 @@
         <v>1.0040138919</v>
       </c>
       <c r="S8">
-        <v>0.004848669077314784</v>
+        <v>0.003277678111359476</v>
       </c>
       <c r="T8">
-        <v>0.005109865482326323</v>
+        <v>0.003291310611029452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.0837</v>
       </c>
       <c r="I9">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J9">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N9">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O9">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P9">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q9">
-        <v>0.6067493258999999</v>
+        <v>0.8762681990999999</v>
       </c>
       <c r="R9">
-        <v>5.460743933099999</v>
+        <v>7.8864137919</v>
       </c>
       <c r="S9">
-        <v>0.02637148794570008</v>
+        <v>0.02574578506470376</v>
       </c>
       <c r="T9">
-        <v>0.02779211239673741</v>
+        <v>0.02585286678367471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.0837</v>
       </c>
       <c r="I10">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J10">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N10">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O10">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P10">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q10">
-        <v>0.0762215445</v>
+        <v>0.02142690705</v>
       </c>
       <c r="R10">
-        <v>0.457329267</v>
+        <v>0.1285614423</v>
       </c>
       <c r="S10">
-        <v>0.00331285995085832</v>
+        <v>0.0006295476020666715</v>
       </c>
       <c r="T10">
-        <v>0.002327548507400188</v>
+        <v>0.000421444008519142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.0837</v>
       </c>
       <c r="I11">
-        <v>0.06343996983380168</v>
+        <v>0.05066414213561767</v>
       </c>
       <c r="J11">
-        <v>0.06569368846122149</v>
+        <v>0.05066414213561768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N11">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O11">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P11">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q11">
-        <v>0.5685059589</v>
+        <v>0.6099310233</v>
       </c>
       <c r="R11">
-        <v>5.116553630099999</v>
+        <v>5.489379209700001</v>
       </c>
       <c r="S11">
-        <v>0.02470929492991468</v>
+        <v>0.01792048718224062</v>
       </c>
       <c r="T11">
-        <v>0.02604037752250889</v>
+        <v>0.01799502196793267</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H12">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I12">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J12">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N12">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O12">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P12">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q12">
-        <v>0.7018773375366667</v>
+        <v>0.484818892385</v>
       </c>
       <c r="R12">
-        <v>6.316896037829999</v>
+        <v>4.363370031465</v>
       </c>
       <c r="S12">
-        <v>0.0305060903343449</v>
+        <v>0.01424454637458263</v>
       </c>
       <c r="T12">
-        <v>0.03214944462378651</v>
+        <v>0.01430379220872279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H13">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I13">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J13">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.995387</v>
       </c>
       <c r="O13">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P13">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q13">
-        <v>0.8107308883482224</v>
+        <v>0.5141582729810001</v>
       </c>
       <c r="R13">
-        <v>7.296577995134</v>
+        <v>4.627424456829001</v>
       </c>
       <c r="S13">
-        <v>0.0352372535685447</v>
+        <v>0.01510657170830121</v>
       </c>
       <c r="T13">
-        <v>0.03713547425711374</v>
+        <v>0.015169402873178</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H14">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I14">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J14">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N14">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O14">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P14">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q14">
-        <v>4.409494545485111</v>
+        <v>4.038654173981</v>
       </c>
       <c r="R14">
-        <v>39.685450909366</v>
+        <v>36.34788756582901</v>
       </c>
       <c r="S14">
-        <v>0.1916523468409359</v>
+        <v>0.1186603855084298</v>
       </c>
       <c r="T14">
-        <v>0.2019766034995487</v>
+        <v>0.1191539170912526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H15">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I15">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J15">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N15">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O15">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P15">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q15">
-        <v>0.5539330171033334</v>
+        <v>0.09875500181550001</v>
       </c>
       <c r="R15">
-        <v>3.32359810262</v>
+        <v>0.5925300108930001</v>
       </c>
       <c r="S15">
-        <v>0.02407590294657109</v>
+        <v>0.002901537512621908</v>
       </c>
       <c r="T15">
-        <v>0.01691524326378018</v>
+        <v>0.001942403713672687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2027606666666667</v>
+        <v>0.128589</v>
       </c>
       <c r="H16">
-        <v>0.608282</v>
+        <v>0.385767</v>
       </c>
       <c r="I16">
-        <v>0.4610441066958728</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="J16">
-        <v>0.4774227981429956</v>
+        <v>0.2335072176730087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N16">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O16">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P16">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q16">
-        <v>4.131564416865111</v>
+        <v>2.811126177603001</v>
       </c>
       <c r="R16">
-        <v>37.18407975178599</v>
+        <v>25.300135598427</v>
       </c>
       <c r="S16">
-        <v>0.1795725130054762</v>
+        <v>0.0825941765690731</v>
       </c>
       <c r="T16">
-        <v>0.1892460324987665</v>
+        <v>0.08293770178618259</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H17">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I17">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J17">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N17">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O17">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P17">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q17">
-        <v>0.1566808963125</v>
+        <v>1.220132635738333</v>
       </c>
       <c r="R17">
-        <v>0.9400853778749999</v>
+        <v>10.981193721645</v>
       </c>
       <c r="S17">
-        <v>0.006809910109578876</v>
+        <v>0.03584892458999842</v>
       </c>
       <c r="T17">
-        <v>0.004784505335630964</v>
+        <v>0.03599802722791408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H18">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I18">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J18">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.995387</v>
       </c>
       <c r="O18">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P18">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q18">
-        <v>0.1809804013625</v>
+        <v>1.293970384926334</v>
       </c>
       <c r="R18">
-        <v>1.085882408175</v>
+        <v>11.645733464337</v>
       </c>
       <c r="S18">
-        <v>0.007866053193977075</v>
+        <v>0.03801836406321934</v>
       </c>
       <c r="T18">
-        <v>0.005526530140831425</v>
+        <v>0.03817648982112968</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H19">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I19">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J19">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N19">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O19">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P19">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q19">
-        <v>0.9843366080124999</v>
+        <v>10.16398873792633</v>
       </c>
       <c r="R19">
-        <v>5.906019648075</v>
+        <v>91.475898641337</v>
       </c>
       <c r="S19">
-        <v>0.04278277681513441</v>
+        <v>0.2986298826266752</v>
       </c>
       <c r="T19">
-        <v>0.03005831511009145</v>
+        <v>0.2998719422914859</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H20">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I20">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J20">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N20">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O20">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P20">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q20">
-        <v>0.1236551131875</v>
+        <v>0.2485344580215</v>
       </c>
       <c r="R20">
-        <v>0.49462045275</v>
+        <v>1.491206748129</v>
       </c>
       <c r="S20">
-        <v>0.005374491882642462</v>
+        <v>0.007302233202079213</v>
       </c>
       <c r="T20">
-        <v>0.00251733964913264</v>
+        <v>0.004888403071861619</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0452625</v>
+        <v>0.323617</v>
       </c>
       <c r="H21">
-        <v>0.09052499999999999</v>
+        <v>0.970851</v>
       </c>
       <c r="I21">
-        <v>0.1029194134266111</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="J21">
-        <v>0.07105043187517414</v>
+        <v>0.5876622826344869</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N21">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O21">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P21">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q21">
-        <v>0.9222939413875</v>
+        <v>7.074697059759001</v>
       </c>
       <c r="R21">
-        <v>5.533763648324999</v>
+        <v>63.67227353783101</v>
       </c>
       <c r="S21">
-        <v>0.04008618142527825</v>
+        <v>0.2078628781525148</v>
       </c>
       <c r="T21">
-        <v>0.02816374163948766</v>
+        <v>0.2087274202220956</v>
       </c>
     </row>
   </sheetData>
